--- a/WATER BILL.xlsx
+++ b/WATER BILL.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGUSTINE\Documents\GitHub\schoolmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALABI ALFRED\Documents\GitHub\schoolmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36856BF7-E6B5-4349-B384-5F15453CD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
     <sheet name="2023" sheetId="2" r:id="rId2"/>
     <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Alfred</t>
   </si>
@@ -81,11 +82,14 @@
   <si>
     <t>31-November</t>
   </si>
+  <si>
+    <t>paid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1039,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1593,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,23 +1709,23 @@
         <v>45351</v>
       </c>
       <c r="B4">
-        <v>225.66</v>
+        <v>207.66</v>
       </c>
       <c r="C4">
-        <f>B4/12</f>
-        <v>18.805</v>
+        <f>B4/11</f>
+        <v>18.878181818181819</v>
       </c>
       <c r="D4">
-        <f>B4/12</f>
-        <v>18.805</v>
+        <f>B4/11</f>
+        <v>18.878181818181819</v>
       </c>
       <c r="E4">
-        <f>B4*4/12</f>
-        <v>75.22</v>
+        <f>B4*4/11</f>
+        <v>75.512727272727275</v>
       </c>
       <c r="F4">
-        <f>B4*6/12</f>
-        <v>112.83</v>
+        <f>B4*6/11</f>
+        <v>113.26909090909091</v>
       </c>
       <c r="I4" s="11">
         <v>45339</v>
@@ -1740,13 +1744,50 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="11">
+        <v>45381</v>
+      </c>
+      <c r="B5">
+        <v>105.74</v>
+      </c>
+      <c r="C5">
+        <f>B5/11</f>
+        <v>9.6127272727272715</v>
+      </c>
+      <c r="D5">
+        <f>B5/11</f>
+        <v>9.6127272727272715</v>
+      </c>
+      <c r="E5">
+        <f>B5*3/11</f>
+        <v>28.838181818181816</v>
+      </c>
+      <c r="F5">
+        <f>B5*6/11</f>
+        <v>57.676363636363632</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45370</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="F6" s="12"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11">
+        <v>45402</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -1788,23 +1829,23 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>684.83</v>
+        <v>772.57</v>
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>57.069166666666668</v>
+        <v>66.755075757575753</v>
       </c>
       <c r="D15">
         <f>SUM(D3:D14)</f>
-        <v>57.069166666666668</v>
+        <v>66.755075757575753</v>
       </c>
       <c r="E15">
         <f>SUM(E3:E14)</f>
-        <v>228.27666666666667</v>
+        <v>257.40757575757573</v>
       </c>
       <c r="F15">
         <f>SUM(F3:F14)</f>
-        <v>342.41500000000002</v>
+        <v>400.53045454545457</v>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -1812,21 +1853,24 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
       <c r="J18">
         <f>SUM(J4:J17)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <f>SUM(K4:K17)</f>
-        <v>37.5</v>
+        <v>56.5</v>
       </c>
       <c r="L18">
         <f>SUM(L4:L17)</f>
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="M18">
         <f>SUM(M4:M17)</f>
-        <v>229</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
@@ -1835,23 +1879,23 @@
       </c>
       <c r="J19">
         <f>C15+J3-J18</f>
-        <v>19.153754578754508</v>
+        <v>9.8396636696635937</v>
       </c>
       <c r="K19">
         <f>D15+K3-K18</f>
-        <v>19.147967032967024</v>
+        <v>9.8338761238761094</v>
       </c>
       <c r="L19">
         <f>E15+L3-L18</f>
-        <v>75.429652014652021</v>
+        <v>29.560561105561078</v>
       </c>
       <c r="M19">
         <f>F15+M3-M18</f>
-        <v>114.35554945054952</v>
+        <v>58.471003996004072</v>
       </c>
       <c r="N19">
         <f>SUM(J19:M19)</f>
-        <v>228.08692307692309</v>
+        <v>107.70510489510485</v>
       </c>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
